--- a/Problem1_Analysis.xlsx
+++ b/Problem1_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oldma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0615C-12AA-4FC6-B07A-8E9C3B8B1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E17C7-38A1-4BE8-B3CA-DE183C951710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="10545" firstSheet="2" activeTab="3" xr2:uid="{E3530AC9-A561-464B-85B3-D3AEFB5359B8}"/>
   </bookViews>
